--- a/1866-1873-Field-Diaries/LLJs/LJ-headers-and-footers.xlsx
+++ b/1866-1873-Field-Diaries/LLJs/LJ-headers-and-footers.xlsx
@@ -2959,7 +2959,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D419"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A380" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
       <selection activeCell="C334" sqref="C334"/>
     </sheetView>
   </sheetViews>
@@ -7882,7 +7882,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D416"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
